--- a/data/cleaned_data/2013_FL.xlsx
+++ b/data/cleaned_data/2013_FL.xlsx
@@ -2666,6 +2666,9 @@
       <c r="E59" t="s">
         <v>238</v>
       </c>
+      <c r="F59">
+        <v>209439</v>
+      </c>
       <c r="G59" t="s">
         <v>249</v>
       </c>
@@ -2688,6 +2691,9 @@
       </c>
       <c r="E60" t="s">
         <v>239</v>
+      </c>
+      <c r="F60">
+        <v>285299</v>
       </c>
       <c r="G60" t="s">
         <v>270</v>
